--- a/inst/extdata/examples/xlsx/oversterfte.xlsx
+++ b/inst/extdata/examples/xlsx/oversterfte.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t xml:space="preserve">rose, endeavour, anakiwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve">lock</t>
@@ -610,7 +616,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -631,16 +645,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
